--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2079,6 +2079,867 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Visual Basic</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+      <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>C++</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Java</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Windows NT</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Windows 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>47</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Windows XP</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>48</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Windows Vista</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>49</v>
+      </c>
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Linux</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Unix</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>SQL Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>52</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Microsoft Access</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>53</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Database</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>54</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>JCL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>55</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>SQL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>DB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>57</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>MS Visio</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>58</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>MS Excel</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>59</v>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>MS FrontPage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>YOUR NAME</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Project Manager / Consultant</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Bachelor of Science in Computer Science</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Southeastern Louisiana University</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>60</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>MS Word</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
